--- a/scripts/Half-Elf.xlsx
+++ b/scripts/Half-Elf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -1866,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -1879,7 +1879,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -1892,7 +1892,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -1918,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -1931,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -1944,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -1957,7 +1957,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -1970,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="10"/>
@@ -1983,7 +1983,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="10"/>
@@ -1996,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="10"/>
@@ -2009,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="10"/>
@@ -2022,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D18" s="10"/>
@@ -2035,7 +2035,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D19" s="10"/>
@@ -2048,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D20" s="10"/>
@@ -2061,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D21" s="10"/>
@@ -2074,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D22" s="10"/>
@@ -2087,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D23" s="10"/>
@@ -2100,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D24" s="10"/>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D25" s="10"/>
@@ -2126,7 +2126,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -2139,7 +2139,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="10"/>
@@ -2152,7 +2152,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="10"/>
@@ -2165,7 +2165,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="10"/>
@@ -2178,7 +2178,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="10"/>
@@ -2191,7 +2191,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="10"/>
@@ -2204,7 +2204,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="10"/>
@@ -2217,7 +2217,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="10"/>
@@ -2230,7 +2230,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="10"/>
@@ -2243,7 +2243,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="10"/>
@@ -2256,7 +2256,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="10"/>
@@ -2269,7 +2269,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="10"/>
@@ -2282,7 +2282,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="10"/>
@@ -2295,7 +2295,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="10"/>
@@ -2308,7 +2308,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="10"/>
@@ -2321,7 +2321,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="10"/>
@@ -2334,7 +2334,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="10"/>
@@ -2347,7 +2347,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="10"/>
@@ -2360,7 +2360,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="10"/>
@@ -2373,7 +2373,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="10"/>
@@ -2386,7 +2386,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="10"/>
@@ -2399,7 +2399,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="10"/>
@@ -2412,7 +2412,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="10"/>
@@ -2425,7 +2425,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="10"/>
@@ -2438,7 +2438,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="10"/>
@@ -2451,7 +2451,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="10"/>
@@ -2464,7 +2464,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="10"/>
@@ -2477,7 +2477,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="10"/>
@@ -2490,7 +2490,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="10"/>
@@ -2503,7 +2503,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="10"/>
@@ -2516,7 +2516,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="10"/>
@@ -2529,7 +2529,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="10"/>
@@ -2542,7 +2542,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="10"/>
@@ -2555,7 +2555,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="10"/>
@@ -2568,7 +2568,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="10"/>
@@ -2581,7 +2581,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="10"/>
@@ -2594,7 +2594,7 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="10"/>
@@ -2607,7 +2607,7 @@
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="10"/>
@@ -2620,7 +2620,7 @@
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="10"/>
@@ -2633,7 +2633,7 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="10"/>
@@ -2646,7 +2646,7 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="10"/>
@@ -2659,7 +2659,7 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f>IF(B67&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D67" s="10"/>
@@ -2672,7 +2672,7 @@
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>IF(B68&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D68" s="10"/>
@@ -2685,7 +2685,7 @@
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f>IF(B69&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D69" s="10"/>
@@ -2698,7 +2698,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
@@ -2711,7 +2711,7 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>IF(B71&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D71" s="10"/>
@@ -2724,7 +2724,7 @@
         <v>0.1</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>IF(B72&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D72" s="10"/>
@@ -2737,7 +2737,7 @@
         <v>0.1</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f>IF(B73&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D73" s="10"/>
@@ -2750,7 +2750,7 @@
         <v>0.1</v>
       </c>
       <c r="C74" s="9" t="str">
-        <f>IF(B74&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D74" s="10"/>
@@ -2763,7 +2763,7 @@
         <v>0.1</v>
       </c>
       <c r="C75" s="9" t="str">
-        <f>IF(B75&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D75" s="10"/>
@@ -2776,7 +2776,7 @@
         <v>0.1</v>
       </c>
       <c r="C76" s="9" t="str">
-        <f>IF(B76&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D76" s="10"/>
@@ -2789,7 +2789,7 @@
         <v>0.1</v>
       </c>
       <c r="C77" s="9" t="str">
-        <f>IF(B77&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D77" s="10"/>
@@ -2802,7 +2802,7 @@
         <v>0.1</v>
       </c>
       <c r="C78" s="9" t="str">
-        <f>IF(B78&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D78" s="10"/>
@@ -2815,7 +2815,7 @@
         <v>0.1</v>
       </c>
       <c r="C79" s="9" t="str">
-        <f>IF(B79&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D79" s="10"/>
@@ -2828,7 +2828,7 @@
         <v>0.1</v>
       </c>
       <c r="C80" s="9" t="str">
-        <f>IF(B80&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D80" s="10"/>
@@ -2841,7 +2841,7 @@
         <v>0.1</v>
       </c>
       <c r="C81" s="9" t="str">
-        <f>IF(B81&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D81" s="10"/>
@@ -2854,7 +2854,7 @@
         <v>0.1</v>
       </c>
       <c r="C82" s="9" t="str">
-        <f>IF(B82&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D82" s="7"/>
@@ -2867,7 +2867,7 @@
         <v>0.1</v>
       </c>
       <c r="C83" s="9" t="str">
-        <f>IF(B83&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D83" s="7"/>
@@ -2880,7 +2880,7 @@
         <v>0.1</v>
       </c>
       <c r="C84" s="9" t="str">
-        <f>IF(B84&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D84" s="7"/>
@@ -2893,7 +2893,7 @@
         <v>0.1</v>
       </c>
       <c r="C85" s="9" t="str">
-        <f>IF(B85&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D85" s="7"/>
@@ -2906,7 +2906,7 @@
         <v>0.1</v>
       </c>
       <c r="C86" s="9" t="str">
-        <f>IF(B86&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D86" s="7"/>
@@ -2919,7 +2919,7 @@
         <v>0.1</v>
       </c>
       <c r="C87" s="9" t="str">
-        <f>IF(B87&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D87" s="7"/>
@@ -2932,7 +2932,7 @@
         <v>0.1</v>
       </c>
       <c r="C88" s="9" t="str">
-        <f>IF(B88&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D88" s="7"/>
@@ -3015,7 +3015,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C22" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C23" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -3588,7 +3588,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -3601,7 +3601,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -3614,7 +3614,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -3627,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -3640,7 +3640,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -3653,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -3666,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -3679,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
@@ -3705,7 +3705,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -3718,7 +3718,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -3731,7 +3731,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -3744,7 +3744,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -3757,7 +3757,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -3770,7 +3770,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -3783,7 +3783,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -3796,7 +3796,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -3809,7 +3809,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -3822,7 +3822,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -3835,7 +3835,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -3848,7 +3848,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -3861,7 +3861,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -3874,7 +3874,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -3887,7 +3887,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -3900,7 +3900,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -3913,7 +3913,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -3926,7 +3926,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -3939,7 +3939,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -3952,7 +3952,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -3965,7 +3965,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -3978,7 +3978,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -3991,7 +3991,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -4004,7 +4004,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -4017,7 +4017,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -4030,7 +4030,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="7"/>
@@ -4043,7 +4043,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="7"/>
@@ -4056,7 +4056,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D43" s="7"/>
@@ -4069,7 +4069,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D44" s="7"/>
@@ -4082,7 +4082,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D45" s="8"/>
@@ -4095,7 +4095,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D46" s="8"/>
@@ -4108,7 +4108,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D47" s="8"/>
@@ -4978,7 +4978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -5040,7 +5040,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1,"common","rare")</f>
+        <f t="shared" ref="C6:C17" si="0">IF(B6&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5088,7 +5088,7 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5112,7 +5112,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C12" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5273,7 +5273,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5464,7 +5464,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5477,7 +5477,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5490,7 +5490,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5503,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5516,7 +5516,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -5529,7 +5529,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -5542,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -5555,7 +5555,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -5568,7 +5568,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -5581,7 +5581,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -5594,7 +5594,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -5607,7 +5607,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -5620,7 +5620,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -5633,7 +5633,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -5646,7 +5646,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -5659,7 +5659,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -5672,7 +5672,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -5685,7 +5685,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -5698,7 +5698,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -5711,7 +5711,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -5724,7 +5724,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -5737,7 +5737,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -5750,7 +5750,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -5763,7 +5763,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -5776,7 +5776,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -5789,7 +5789,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -5802,7 +5802,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -5815,7 +5815,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -5828,7 +5828,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -5841,7 +5841,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -5854,7 +5854,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -5867,7 +5867,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -5880,7 +5880,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -5893,7 +5893,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -7778,7 +7778,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C34" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -7791,7 +7791,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7804,7 +7804,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7817,7 +7817,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -7830,7 +7830,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -7843,7 +7843,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -7869,7 +7869,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -7882,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
@@ -7908,7 +7908,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -7921,7 +7921,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -7934,7 +7934,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -7947,7 +7947,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -7960,7 +7960,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -7973,7 +7973,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -7986,7 +7986,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -7999,7 +7999,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
@@ -8012,7 +8012,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
@@ -8025,7 +8025,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
@@ -8038,7 +8038,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
@@ -8051,7 +8051,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -8064,7 +8064,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
@@ -8077,7 +8077,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
@@ -8090,7 +8090,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
@@ -8103,7 +8103,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
@@ -8116,7 +8116,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
@@ -8129,7 +8129,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
@@ -8142,7 +8142,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
@@ -8325,7 +8325,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8338,7 +8338,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8351,7 +8351,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8364,7 +8364,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8377,7 +8377,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8390,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8403,7 +8403,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8416,7 +8416,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8429,7 +8429,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -8442,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
@@ -8455,7 +8455,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -8468,7 +8468,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -8481,7 +8481,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -8494,7 +8494,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -8507,7 +8507,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -8520,7 +8520,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -8533,7 +8533,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -8546,7 +8546,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
@@ -8559,7 +8559,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
@@ -8572,7 +8572,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
@@ -8585,7 +8585,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -8598,7 +8598,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -8611,7 +8611,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
@@ -8624,7 +8624,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
@@ -8637,7 +8637,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
@@ -8650,7 +8650,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
@@ -8663,7 +8663,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
@@ -8676,7 +8676,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
@@ -8689,7 +8689,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
@@ -8702,7 +8702,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="8"/>
@@ -8715,7 +8715,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="8"/>
@@ -8728,7 +8728,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="8"/>
@@ -8741,7 +8741,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="8"/>
@@ -8754,7 +8754,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="8"/>
@@ -8767,7 +8767,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="8"/>
@@ -8780,7 +8780,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="8"/>
@@ -8793,7 +8793,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="8"/>
@@ -8806,7 +8806,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D43" s="8"/>
@@ -8819,7 +8819,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D44" s="8"/>
@@ -8832,7 +8832,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D45" s="8"/>
@@ -8845,7 +8845,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D46" s="8"/>
@@ -8858,7 +8858,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D47" s="8"/>
@@ -9178,8 +9178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B6" s="5">
         <v>8</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B7" s="5">
         <v>7</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -9290,7 +9290,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B11" s="5">
         <v>3</v>
@@ -9316,7 +9316,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -9329,7 +9329,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -9342,7 +9342,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
@@ -9355,7 +9355,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
@@ -9420,7 +9420,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -9433,7 +9433,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -9459,7 +9459,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -9472,7 +9472,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
@@ -9641,7 +9641,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C36">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9717,7 +9717,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C24" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9730,7 +9730,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9743,7 +9743,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -9756,7 +9756,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -9769,7 +9769,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -9782,7 +9782,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -9795,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -9808,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9821,7 +9821,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9834,7 +9834,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9847,7 +9847,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9860,7 +9860,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9873,7 +9873,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9886,7 +9886,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -9899,7 +9899,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -9912,7 +9912,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
@@ -9925,7 +9925,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -9938,7 +9938,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -9951,7 +9951,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>

--- a/scripts/Half-Elf.xlsx
+++ b/scripts/Half-Elf.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="433">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -1337,13 +1337,23 @@
   </si>
   <si>
     <t>drooping</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1448,61 +1458,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1524,6 +1536,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="21" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1801,7 +1814,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1817,6 +1830,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1829,6 +1845,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1842,6 +1862,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>63</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1575</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -2698,7 +2722,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C88" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
@@ -2947,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2959,15 +2983,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2978,8 +3005,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2991,12 +3022,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.30555555555555558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3007,7 +3042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -3019,7 +3054,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -3031,7 +3066,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -3043,7 +3078,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +3090,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -3067,7 +3102,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -3079,7 +3114,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -3091,7 +3126,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -3103,7 +3138,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -3115,7 +3150,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -3127,7 +3162,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3221,10 +3256,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3233,15 +3268,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3252,8 +3290,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3265,12 +3307,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3281,7 +3327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>407</v>
       </c>
@@ -3293,7 +3339,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -3305,7 +3351,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -3317,7 +3363,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>410</v>
       </c>
@@ -3329,7 +3375,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>417</v>
       </c>
@@ -3341,7 +3387,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>418</v>
       </c>
@@ -3353,7 +3399,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -3365,7 +3411,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>423</v>
       </c>
@@ -3377,7 +3423,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>422</v>
       </c>
@@ -3389,7 +3435,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>421</v>
       </c>
@@ -3401,7 +3447,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>420</v>
       </c>
@@ -3510,7 +3556,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3526,6 +3572,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -3538,6 +3587,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3550,6 +3603,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>32</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4181,7 +4238,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4197,6 +4254,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4209,6 +4269,10 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -4221,6 +4285,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>46</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4976,10 +5044,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4988,15 +5056,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5007,8 +5078,12 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5020,8 +5095,12 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -5032,7 +5111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -5044,7 +5123,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>405</v>
       </c>
@@ -5056,7 +5135,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>402</v>
       </c>
@@ -5068,7 +5147,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>404</v>
       </c>
@@ -5080,7 +5159,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>403</v>
       </c>
@@ -5092,7 +5171,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>401</v>
       </c>
@@ -5104,7 +5183,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -5116,7 +5195,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
@@ -5128,7 +5207,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -5140,7 +5219,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -5152,7 +5231,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -5196,8 +5275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5206,15 +5285,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5225,8 +5307,12 @@
         <f>COUNTIF(C$6:C100, "common")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5238,11 +5324,15 @@
         <f>COUNTIF(C$6:C100, "rare")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -5253,7 +5343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -5265,7 +5355,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>406</v>
       </c>
@@ -5277,7 +5367,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5289,7 +5379,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -5301,7 +5391,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -5313,7 +5403,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5325,7 +5415,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5337,15 +5427,15 @@
         <v>common</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
@@ -5386,7 +5476,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5402,6 +5492,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5414,6 +5507,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -5426,6 +5523,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>27</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.421875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6146,7 +6247,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6162,6 +6263,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -6174,6 +6278,10 @@
         <f>COUNTIF(C$6:C111, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -6186,6 +6294,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$7:C111, "rare")</f>
         <v>65</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.16250000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7315,7 +7427,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7331,6 +7443,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7343,6 +7458,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7355,6 +7474,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>5</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7713,7 +7836,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7729,6 +7852,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7741,6 +7867,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7753,6 +7883,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>19</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8260,7 +8394,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8276,6 +8410,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8288,6 +8425,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8300,6 +8441,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>32</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8876,7 +9021,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8892,6 +9037,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8904,6 +9052,10 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8916,6 +9068,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>2</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9178,8 +9334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9195,6 +9351,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9207,6 +9366,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9220,6 +9383,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>23</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.359375</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9244,7 +9411,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9257,7 +9424,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9270,7 +9437,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9283,7 +9450,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9296,7 +9463,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9309,7 +9476,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9322,7 +9489,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -9335,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9348,7 +9515,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9361,7 +9528,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9374,7 +9541,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9387,7 +9554,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9400,7 +9567,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9413,7 +9580,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
@@ -9426,7 +9593,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -9439,7 +9606,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -9452,7 +9619,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -9465,7 +9632,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -9478,7 +9645,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -9491,7 +9658,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -9504,7 +9671,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -9517,7 +9684,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -9530,7 +9697,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -9543,7 +9710,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -9556,7 +9723,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -9569,7 +9736,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -9582,7 +9749,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -9595,7 +9762,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -9608,7 +9775,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -9621,7 +9788,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -9634,7 +9801,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -9652,7 +9819,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9668,6 +9835,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9680,6 +9850,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9692,6 +9866,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>11</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.171875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/scripts/Half-Elf.xlsx
+++ b/scripts/Half-Elf.xlsx
@@ -1814,7 +1814,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2974,7 +2974,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3020,11 +3020,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.30555555555555558</v>
+        <v>0.19444444444444445</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3050,7 +3050,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C22" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3110,145 +3110,125 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C22">
-    <sortCondition descending="1" ref="B19"/>
+    <sortCondition descending="1" ref="B21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3259,7 +3239,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3305,11 +3285,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3335,7 +3315,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C23" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3347,7 +3327,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3359,7 +3339,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3371,7 +3351,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3383,7 +3363,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3395,157 +3375,127 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>424</v>
-      </c>
-      <c r="B12" s="5">
+        <v>423</v>
+      </c>
+      <c r="B12" s="4">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>423</v>
-      </c>
-      <c r="B13" s="4">
+        <v>422</v>
+      </c>
+      <c r="B13" s="5">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B16" s="4">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B17" s="5">
+        <v>413</v>
+      </c>
+      <c r="B17" s="4">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>416</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>414</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>413</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>412</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>411</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C23">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3556,7 +3506,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="B47" sqref="B6:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3602,11 +3552,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3632,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -3645,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -3658,7 +3608,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -3671,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -3684,7 +3634,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -3697,7 +3647,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -3710,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -3723,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -3736,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -3749,425 +3699,345 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="5">
+        <v>76</v>
+      </c>
+      <c r="B16">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>85</v>
+      <c r="A18" t="s">
+        <v>69</v>
       </c>
       <c r="B18">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24">
+        <v>51</v>
+      </c>
+      <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="5">
+        <v>77</v>
+      </c>
+      <c r="B32">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="A35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C42" s="9"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C45" s="9"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C46" s="9"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,7 +4097,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C54">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4238,7 +4108,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4284,11 +4154,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4314,7 +4184,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -4327,7 +4197,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -4340,7 +4210,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -4353,7 +4223,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -4366,7 +4236,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -4379,7 +4249,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -4392,7 +4262,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -4405,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -4418,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -4431,612 +4301,477 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C61" si="1">IF(B38&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C61">
-    <sortCondition descending="1" ref="B61"/>
+    <sortCondition descending="1" ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5047,7 +4782,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5093,11 +4828,11 @@
       </c>
       <c r="C3">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5119,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C17" si="0">IF(B6&gt;=1,"common","rare")</f>
+        <f>IF(B6&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5131,7 +4866,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5143,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5155,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5167,7 +4902,7 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
@@ -5179,81 +4914,61 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5265,7 +4980,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C17">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5276,7 +4991,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5476,7 +5191,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5522,11 +5237,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.421875</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5552,7 +5267,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5565,7 +5280,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5578,7 +5293,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5591,7 +5306,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5604,7 +5319,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5617,7 +5332,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -5630,7 +5345,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -5643,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -5656,7 +5371,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -5669,7 +5384,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -5682,321 +5397,246 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6247,7 +5887,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7427,7 +7067,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7836,7 +7476,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8394,7 +8034,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8440,11 +8080,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8470,7 +8110,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8483,7 +8123,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8496,7 +8136,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8509,7 +8149,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8522,7 +8162,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8535,7 +8175,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8548,7 +8188,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8561,7 +8201,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8574,7 +8214,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -8587,430 +8227,350 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="5">
+        <v>217</v>
+      </c>
+      <c r="B22">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27">
+        <v>209</v>
+      </c>
+      <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="5">
+        <v>218</v>
+      </c>
+      <c r="B29">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B40">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A6:C47">
-    <sortCondition descending="1" ref="B36"/>
+    <sortCondition descending="1" ref="B45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9021,7 +8581,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9335,7 +8895,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9381,11 +8941,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.359375</v>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9411,7 +8971,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9424,7 +8984,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9437,7 +8997,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9450,7 +9010,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9463,7 +9023,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9476,7 +9036,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9489,7 +9049,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -9502,313 +9062,263 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C36">
-    <sortCondition descending="1" ref="B36"/>
+    <sortCondition descending="1" ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9819,7 +9329,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
